--- a/input/dtc_parse.xlsx
+++ b/input/dtc_parse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\automation\oem-service-compare-data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC3DA6-3789-4EB6-B34D-8E2D8098130A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231678CA-2700-4AEA-AAE1-CE4F11D17173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>VIN</t>
   </si>
@@ -111,15 +111,6 @@
   </si>
   <si>
     <t>US</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>VN</t>
   </si>
   <si>
     <t>1N6AA06B15N575239</t>
@@ -153,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,12 +180,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,11 +209,13 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +494,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -520,114 +507,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="4" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -635,13 +622,13 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -649,13 +636,13 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -663,13 +650,13 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
